--- a/data/trans_dic/P15D$ingresado-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P15D$ingresado-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,12 +725,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 61,8</t>
+          <t>0,0; 60,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,62; 27,29</t>
+          <t>4,56; 27,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +740,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,16</t>
+          <t>0,0; 22,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,44 +750,44 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,99</t>
+          <t>0,0; 23,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,46; 37,71</t>
+          <t>7,47; 40,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,56; 13,76</t>
+          <t>1,58; 15,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,8</t>
+          <t>0,0; 31,46</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,51; 20,31</t>
+          <t>4,23; 20,35</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,3; 25,44</t>
+          <t>4,22; 24,85</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,69; 14,98</t>
+          <t>1,7; 14,87</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 78,76</t>
+          <t>0,0; 80,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,28; 36,07</t>
+          <t>6,4; 35,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,9</t>
+          <t>0,0; 28,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,85; 35,68</t>
+          <t>6,28; 37,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,13</t>
+          <t>0,0; 44,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,85</t>
+          <t>3,26; 28,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,9</t>
+          <t>0,0; 41,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,17; 20,87</t>
+          <t>2,34; 21,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,13; 52,32</t>
+          <t>6,08; 51,66</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,37; 24,17</t>
+          <t>6,84; 24,23</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,78; 21,78</t>
+          <t>2,69; 21,18</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,47; 22,26</t>
+          <t>6,12; 23,24</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,12 +1005,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,9</t>
+          <t>0,0; 24,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,04</t>
+          <t>0,0; 11,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,7 +1020,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,45; 32,71</t>
+          <t>4,43; 32,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,7 +1030,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,42; 19,81</t>
+          <t>2,41; 20,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,17 +1040,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,46; 17,19</t>
+          <t>1,42; 17,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,06</t>
+          <t>0,0; 27,0</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,09; 10,84</t>
+          <t>2,04; 12,21</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,91; 18,5</t>
+          <t>3,78; 19,6</t>
         </is>
       </c>
     </row>
@@ -1149,17 +1150,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,54</t>
+          <t>0,0; 13,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,58; 32,16</t>
+          <t>7,06; 34,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,61; 61,38</t>
+          <t>9,16; 64,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,17 +1170,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,99; 52,54</t>
+          <t>7,14; 54,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,83; 34,99</t>
+          <t>6,82; 36,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,25; 65,96</t>
+          <t>11,85; 66,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,17 +1190,17 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,32; 24,14</t>
+          <t>4,11; 23,93</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,32; 28,65</t>
+          <t>8,77; 29,19</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,56; 53,49</t>
+          <t>13,77; 53,28</t>
         </is>
       </c>
     </row>
@@ -1289,12 +1290,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,42</t>
+          <t>0,0; 26,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,7</t>
+          <t>0,0; 33,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1309,7 +1310,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,35</t>
+          <t>0,0; 20,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1329,24 +1330,24 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,2</t>
+          <t>0,0; 17,68</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,76</t>
+          <t>0,0; 26,31</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,66</t>
+          <t>0,0; 38,53</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,7 +1425,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 72,76</t>
+          <t>0,0; 75,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1434,59 +1435,59 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,01; 31,11</t>
+          <t>3,0; 32,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,83; 38,39</t>
+          <t>10,54; 39,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,44</t>
+          <t>0,0; 47,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,5</t>
+          <t>0,0; 16,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,86; 25,16</t>
+          <t>2,63; 25,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,44; 21,68</t>
+          <t>6,16; 23,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,44; 46,22</t>
+          <t>5,46; 43,48</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,92</t>
+          <t>0,0; 10,58</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,53; 22,42</t>
+          <t>4,3; 21,43</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>10,24; 25,45</t>
+          <t>9,94; 26,03</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,22 +1565,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,27; 37,23</t>
+          <t>7,17; 39,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,47; 15,38</t>
+          <t>1,47; 14,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,39; 28,04</t>
+          <t>3,41; 28,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,58; 25,83</t>
+          <t>4,91; 26,73</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1589,37 +1590,37 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,44</t>
+          <t>0,0; 12,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,47; 28,3</t>
+          <t>3,66; 28,24</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,31; 17,21</t>
+          <t>4,39; 17,9</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,13; 24,72</t>
+          <t>3,98; 23,45</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,64; 10,16</t>
+          <t>1,62; 10,48</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>5,24; 21,99</t>
+          <t>5,44; 23,58</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,16; 17,97</t>
+          <t>5,8; 18,18</t>
         </is>
       </c>
     </row>
@@ -1704,32 +1705,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,97; 30,63</t>
+          <t>3,91; 31,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8,55; 49,29</t>
+          <t>9,09; 47,45</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8,99; 38,2</t>
+          <t>9,16; 39,76</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,2; 41,0</t>
+          <t>8,17; 42,33</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,14</t>
+          <t>0,0; 24,37</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,09; 34,25</t>
+          <t>4,18; 36,14</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1739,27 +1740,27 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,97; 21,29</t>
+          <t>2,7; 21,24</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,68; 21,71</t>
+          <t>3,45; 20,49</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>8,48; 33,69</t>
+          <t>9,38; 33,59</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>4,69; 22,74</t>
+          <t>5,54; 22,6</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>8,55; 27,62</t>
+          <t>8,11; 26,64</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,97; 22,21</t>
+          <t>8,29; 21,8</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,44; 12,41</t>
+          <t>5,39; 12,23</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,93; 16,25</t>
+          <t>7,22; 16,05</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>11,44; 22,06</t>
+          <t>11,21; 22,01</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,01; 11,32</t>
+          <t>1,26; 10,86</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>5,32; 12,03</t>
+          <t>4,93; 11,83</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6,92; 16,91</t>
+          <t>6,6; 16,52</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>8,02; 16,13</t>
+          <t>7,93; 16,86</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6,56; 15,27</t>
+          <t>6,36; 15,32</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>5,99; 10,77</t>
+          <t>5,87; 10,68</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>8,15; 14,55</t>
+          <t>7,95; 14,74</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>10,63; 17,25</t>
+          <t>10,86; 17,97</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuya consecuencia del último accidente fue, al menos, el ingreso en hospital o clínica</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1898</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4675</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1349</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2087</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>5850</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1794</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1898</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>6762</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>5850</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>3142</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5642</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1690; 10345</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1824</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6321</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1872</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6402</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2254; 12285</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>456; 4543</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5154</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2737; 13160</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2082; 12277</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>968; 8488</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2815</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5362</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1016</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>4330</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>976</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3102</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2082</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3037</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3791</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>8464</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3098</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>7367</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6354</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1990; 11076</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5629</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1528; 9167</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4018</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>986; 8475</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6546</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>782; 7147</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1022; 8686</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>4198; 14865</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>948; 7475</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>3530; 13411</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>903</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1938</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2947</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1161</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>3073</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1724</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>2063</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>5011</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>4671</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4386</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5930</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1769</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>946; 7019</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3325</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>961; 8284</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1750</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>380; 4742</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6058</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1889; 11314</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1817</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1817; 9432</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>877</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>6572</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>6694</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>4425</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>6531</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>6045</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>5302</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>13103</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>12739</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1612</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 3982</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2712; 13065</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2177; 15410</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1672</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1172; 8956</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2482; 13397</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2157; 12195</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1699</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1929; 11226</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>6558; 21826</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>5779; 22360</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>803</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>814</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>964</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1767</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>814</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1701</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 3497</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 3414</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1333</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1815</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 3975</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1486</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>123; 540</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1907</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5828</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0; 3543</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2948</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2888</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3533</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>5778</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1021</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1087</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3378</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3196</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>3909</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>1087</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>6911</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>8973</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6738</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1995</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>847; 9158</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2745; 10202</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4983</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5807</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>960; 9228</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1662; 6209</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1064; 8476</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6956</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>2784; 13859</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>5270; 13805</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>3514</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>3030</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>5320</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>2163</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>3180</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>4954</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>5677</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>6210</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>10275</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1957; 10670</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>952; 9553</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>902; 7463</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2132; 11613</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1839</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 7353</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1004; 7739</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>2201; 8971</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1821; 10719</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>2021; 13041</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>2929; 12695</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>5422; 17006</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>3334</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>6078</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>7399</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>5656</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>1902</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>3408</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>2713</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>9486</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>7399</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>8369</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>1032; 8214</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>2183; 11395</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>3170; 13760</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>2120; 10986</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>0; 6565</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>1057; 9148</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1958</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>773; 6077</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1841; 10928</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>4626; 16567</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>3401; 13866</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>4426; 14535</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>17115</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>23248</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>22365</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>32074</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>5060</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>20308</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>21020</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>24002</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>22175</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>43556</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>43385</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>56076</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>10199; 26830</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>15289; 34716</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>14421; 32040</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>22434; 44043</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>1180; 10186</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>12527; 30078</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>12554; 31425</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>16941; 36007</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>13786; 33224</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>31596; 57467</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>30994; 57455</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>44915; 74353</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>